--- a/biology/Botanique/Tillandsia_friesii/Tillandsia_friesii.xlsx
+++ b/biology/Botanique/Tillandsia_friesii/Tillandsia_friesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia friesii Mez est une plante de la famille des Bromeliaceae.
 Le terme friesii est une dédicace au botaniste Robert Elias Fries, premier collecteur de la plante.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia friesii Mez, in Repert. Spec. Nov. Regni Veg. 3: 37 (1906) ; Castellanos in An. Mus. Argent. Cient. Nat. Buenos Aires, 37: 501 (1933), descr. emend.
-Diagnose originale[1] :
+Diagnose originale :
 « Manifeste caulescens: foliis utrinque lepidibus magnis obtectis pruinosis et argenteo-micantibus; scapo nullo; inflorescentia simplicissima, optime disticha, subflabellata; bracteis sepala permanifeste superantibus; floribus stricte erectis; sepalis liberis, fere aequilongis, symmetricis; petalis fulgide rubris; staminibus inclusis, quam stylus brevioribus. »
 Type :
-leg. R.E. Fries, no 828 ; « Argentina, prov. Salta, Tambo in Quebrada del Toro, alt. 3 000 m» ; Holotypus Herb. Holm[1].
+leg. R.E. Fries, no 828 ; « Argentina, prov. Salta, Tambo in Quebrada del Toro, alt. 3 000 m» ; Holotypus Herb. Holm.
 leg. R.E. Fries, no 828 ; « Argentina, prov. Salta, Tambo in Quebrada del Toro » ; Isotypus B [ Planche en ligne ]</t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,11 +621,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée vivace, rameuse ; saxicole[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée vivace, rameuse ; saxicole.
 Habitat : ?
-Altitude : 3000-3 500 m[2]</t>
+Altitude : 3000-3 500 m</t>
         </is>
       </c>
     </row>
@@ -635,12 +655,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du Sud :
- Argentine[3],[2]
-Salta[1]
- Bolivie[3]</t>
+ Argentine,
+Salta
+ Bolivie</t>
         </is>
       </c>
     </row>
@@ -669,6 +691,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
